--- a/biology/Zoologie/Allobates_marchesianus/Allobates_marchesianus.xlsx
+++ b/biology/Zoologie/Allobates_marchesianus/Allobates_marchesianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allobates marchesianus est une espèce d'amphibiens de la famille des Aromobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allobates marchesianus est une espèce d'amphibiens de la famille des Aromobatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le bassin de l'Amazone jusqu'à 800 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le bassin de l'Amazone jusqu'à 800 m d'altitude :
 au Brésil, dans les États d'Amazonas, du Pará, du Mato Grosso, du Rondônia et d'Acre ;
 en Colombie, dans les départements d'Amazonas et du Putumayo ;
 au Pérou, dans la région de Loreto ;
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Allobates marchesianus[2] mesure 17 mm. Cette espèce a la face dorsale brunâtre avec des taches irrégulières noires et la face ventrale grisâtre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Allobates marchesianus mesure 17 mm. Cette espèce a la face dorsale brunâtre avec des taches irrégulières noires et la face ventrale grisâtre.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur du Père João Marchesi, missionnaire salésien vivant à Taracuá en Amazonas (Brésil)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur du Père João Marchesi, missionnaire salésien vivant à Taracuá en Amazonas (Brésil).
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Melin, 1941 : Contributions to the knowledge of the Amphibia of South America. Göteborgs Kungliga Vetenskaps och Vitter-Hets Samhalles Handlingar, vol. 88, p. 1–71 (texte intégral).</t>
         </is>
